--- a/tests/trivial/scripts_params.xlsx
+++ b/tests/trivial/scripts_params.xlsx
@@ -1137,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="F3" s="2">
         <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>44285.71193287037</v>

--- a/tests/trivial/scripts_params.xlsx
+++ b/tests/trivial/scripts_params.xlsx
@@ -1137,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1151,7 +1151,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>20</v>

--- a/tests/trivial/scripts_params.xlsx
+++ b/tests/trivial/scripts_params.xlsx
@@ -1151,7 +1151,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="12">
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>44285.71193287037</v>
